--- a/public/Excel/18data dami.xlsx
+++ b/public/Excel/18data dami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF29292-8205-43F0-843F-90E05C1955B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C46A39-1E42-43C4-854F-3C9822DD99D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>nama</t>
   </si>
@@ -90,7 +90,25 @@
     <t>XI</t>
   </si>
   <si>
-    <t>id_jurusan</t>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>akuntansi</t>
+  </si>
+  <si>
+    <t>rekayasa perangkat lunak</t>
+  </si>
+  <si>
+    <t>multimedia</t>
+  </si>
+  <si>
+    <t>jurusan</t>
   </si>
 </sst>
 </file>
@@ -443,9 +461,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0027BA82-435A-4A4D-9AB8-3DC2E69B4073}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -454,9 +472,10 @@
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,10 +489,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -486,11 +508,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -503,11 +528,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -520,11 +548,14 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -537,11 +568,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -554,11 +588,14 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -571,11 +608,14 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -588,11 +628,14 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -605,11 +648,14 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -622,11 +668,14 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -639,11 +688,14 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -656,11 +708,14 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -673,11 +728,14 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -690,11 +748,14 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -707,8 +768,11 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>2</v>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
